--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84077.6410674404</v>
+        <v>-70351.28293002227</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-113936.6134391896</v>
+        <v>-113936.6134391897</v>
       </c>
       <c r="F6" t="n">
         <v>19163.3865608104</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70351.28293002227</v>
+        <v>-228103.5785334049</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13271061.30973208</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>27546693.93395781</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1339419.746960427</v>
+        <v>1450300.911168752</v>
       </c>
     </row>
     <row r="11">
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22986,7 +22986,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23208,7 +23208,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
@@ -23223,7 +23223,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23439,7 +23439,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>94.30397654773019</v>
@@ -23454,13 +23454,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23542,7 +23542,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23913,7 +23913,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>94.30397654773019</v>
@@ -23931,10 +23931,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -24250,7 +24250,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>173.7492132756177</v>
@@ -24466,7 +24466,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
@@ -24490,7 +24490,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24727,7 +24727,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24861,7 +24861,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>94.30397654773019</v>
@@ -25098,10 +25098,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -25116,10 +25116,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.054104359354824e-11</v>
+        <v>8763.798353522418</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.054104359354824e-11</v>
+        <v>8529.697236472955</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>154363.8798461046</v>
+        <v>167007.7479526165</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>154363.8798461046</v>
+        <v>163648.9528099584</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>154363.8798461046</v>
+        <v>162908.3657834726</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>154363.8798461046</v>
+        <v>175611.6317423978</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>154363.8798461046</v>
+        <v>181242.2477556828</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154363.8798461046</v>
+        <v>165081.8566903064</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154363.8798461046</v>
+        <v>166925.7151844059</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154363.8798461046</v>
+        <v>171957.1747918291</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>154363.8798461046</v>
+        <v>163648.9528099584</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1110.904016643687</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1081.229227158545</v>
       </c>
       <c r="E2" t="n">
-        <v>22774.99866581872</v>
+        <v>24377.74251030614</v>
       </c>
       <c r="F2" t="n">
-        <v>22774.99866581872</v>
+        <v>23951.97974574384</v>
       </c>
       <c r="G2" t="n">
-        <v>22774.99866581872</v>
+        <v>23858.10251703437</v>
       </c>
       <c r="H2" t="n">
         <v>22774.99866581872</v>
       </c>
       <c r="I2" t="n">
-        <v>22774.99866581872</v>
+        <v>25468.37566675728</v>
       </c>
       <c r="J2" t="n">
-        <v>22774.99866581872</v>
+        <v>26182.11572477934</v>
       </c>
       <c r="K2" t="n">
-        <v>22774.99866581872</v>
+        <v>24133.61544888654</v>
       </c>
       <c r="L2" t="n">
-        <v>22774.99866581872</v>
+        <v>24367.34399039211</v>
       </c>
       <c r="M2" t="n">
         <v>22774.99866581872</v>
       </c>
       <c r="N2" t="n">
-        <v>22774.99866581872</v>
+        <v>25005.13464485422</v>
       </c>
       <c r="O2" t="n">
-        <v>22774.99866581872</v>
+        <v>23951.97974574384</v>
       </c>
       <c r="P2" t="n">
         <v>22774.99866581872</v>
@@ -26420,43 +26420,43 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1234.337796270764</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1201.365807953938</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1780.826493874906</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1307.756755472351</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1203.448723572945</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2992.641112153959</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3785.685621067352</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1509.57420340869</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1769.272582859327</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2477.928865595002</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1307.756755472351</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="E6" t="n">
-        <v>-113936.6134391897</v>
+        <v>-131932.1022784835</v>
       </c>
       <c r="F6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
       <c r="G6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.8977215165</v>
       </c>
       <c r="H6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
       <c r="I6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516507</v>
       </c>
       <c r="J6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516507</v>
       </c>
       <c r="K6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
       <c r="L6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.8977215165</v>
       </c>
       <c r="M6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
       <c r="N6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
       <c r="O6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
       <c r="P6" t="n">
-        <v>19163.3865608104</v>
+        <v>1167.897721516503</v>
       </c>
     </row>
   </sheetData>
